--- a/PIF/pif-results-lisa-A14.xlsx
+++ b/PIF/pif-results-lisa-A14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvoPenzar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvoPenzar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E25AA6-F17B-43A6-958C-75966BF12CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F00E0-9C1E-4120-A915-821083D37E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="150" windowWidth="20490" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37110" yWindow="0" windowWidth="20490" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lisa A14" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> rare, good for Walle (from Samsung A8)</t>
+      <t xml:space="preserve"> rare, good for Wallet (from Samsung A8)</t>
     </r>
   </si>
 </sst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
